--- a/data-raw/treatment-costs.xlsx
+++ b/data-raw/treatment-costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="-17300" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="-26580" yWindow="-21600" windowWidth="36780" windowHeight="20160" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dosage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="113">
   <si>
     <t>erlotinib</t>
   </si>
@@ -40,9 +40,6 @@
     <t>FDA label</t>
   </si>
   <si>
-    <t>AnalySource 201875 (NDC: 50242-0062-01)</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>250 mg orally, daily</t>
   </si>
   <si>
-    <t>AnalySource 2018 (NDC: 50242-0062-01)</t>
-  </si>
-  <si>
     <t>afatinib</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>100mg/100ml vial</t>
   </si>
   <si>
-    <t>AnalySource 201875 (NDC:47781-0610-23)</t>
-  </si>
-  <si>
     <t>pemetrexed</t>
   </si>
   <si>
@@ -145,10 +136,6 @@
     <t>200mg/200ml vial</t>
   </si>
   <si>
-    <t xml:space="preserve">AnalySource 201875 (NDC:47781-0609-25)
-</t>
-  </si>
-  <si>
     <t>50mg/5ml</t>
   </si>
   <si>
@@ -236,21 +223,12 @@
     <t>500mg vial</t>
   </si>
   <si>
-    <t>Web search (need real source)</t>
-  </si>
-  <si>
     <t>45mg tablet</t>
   </si>
   <si>
-    <t>CPT 96417 &amp; 96415</t>
-  </si>
-  <si>
     <t>CPT 96413</t>
   </si>
   <si>
-    <t>This is just a guess</t>
-  </si>
-  <si>
     <t>quantity1</t>
   </si>
   <si>
@@ -309,6 +287,81 @@
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>Data on file</t>
+  </si>
+  <si>
+    <t>ProspectoRx; WAC price 12/15/2017</t>
+  </si>
+  <si>
+    <t>ProspectoRx; WAC price 9/1/2017</t>
+  </si>
+  <si>
+    <t>200mg/2mL</t>
+  </si>
+  <si>
+    <t>1g/10mL</t>
+  </si>
+  <si>
+    <t>2g/20mL</t>
+  </si>
+  <si>
+    <t>160mg/16ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80mg/8ml </t>
+  </si>
+  <si>
+    <t>20mg/2ml</t>
+  </si>
+  <si>
+    <t>300mg/50ml</t>
+  </si>
+  <si>
+    <t>100mg/16.7ml</t>
+  </si>
+  <si>
+    <t>30mg/5ml</t>
+  </si>
+  <si>
+    <t>ProspectoRx; WAC price 3/8/2018</t>
+  </si>
+  <si>
+    <t>ProspectoRx; WAC price 9/12/2016</t>
+  </si>
+  <si>
+    <t>ProspectoRx; WAC price 10/17/2016</t>
+  </si>
+  <si>
+    <t>ProspectoRx; WAC price 3/30/2018</t>
+  </si>
+  <si>
+    <t>ProspectoRx; WAC price 5/1/2018</t>
+  </si>
+  <si>
+    <t>ProspectoRx; WAC price 9/5/2018</t>
+  </si>
+  <si>
+    <t>ProspectoRx; WAC price 9/28/2018</t>
+  </si>
+  <si>
+    <t>ProspectoRx; WAC price 1/23/2018</t>
+  </si>
+  <si>
+    <t>ProspectoRx; WAC price 7/1/2018</t>
+  </si>
+  <si>
+    <t>ProspectoRx; WAC price 4/1/2018</t>
+  </si>
+  <si>
+    <t>ProspectoRx; WAC price 3/22/2018</t>
+  </si>
+  <si>
+    <t>CPT 96417, 96415</t>
+  </si>
+  <si>
+    <t>CPT 96413, 96415, 96417</t>
   </si>
 </sst>
 </file>
@@ -753,7 +806,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -834,6 +887,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="339">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1505,11 +1562,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1528,37 +1585,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1596,19 +1653,19 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="9">
         <v>250</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="27">
@@ -1629,19 +1686,19 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="9">
         <v>40</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="27">
@@ -1662,19 +1719,19 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9">
         <v>45</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="27">
@@ -1695,19 +1752,19 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9">
         <v>80</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="27">
@@ -1728,23 +1785,23 @@
     </row>
     <row r="7" spans="1:11" ht="60">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
         <f xml:space="preserve"> 75 * 1.9</f>
         <v>142.5</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" s="28">
         <v>1</v>
@@ -1760,24 +1817,24 @@
         <v>126</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="8">
         <v>500</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="27">
@@ -1797,20 +1854,20 @@
     </row>
     <row r="9" spans="1:11" ht="30">
       <c r="A9" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="8">
         <f>15 * 74.13</f>
         <v>1111.9499999999998</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="29">
@@ -1832,22 +1889,22 @@
     </row>
     <row r="10" spans="1:11" ht="30">
       <c r="A10" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8">
         <v>240</v>
       </c>
       <c r="D10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>64</v>
-      </c>
       <c r="F10" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G10" s="27">
         <v>2</v>
@@ -1868,19 +1925,19 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8">
         <v>200</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="27">
@@ -1902,19 +1959,19 @@
     </row>
     <row r="12" spans="1:11" ht="30">
       <c r="A12" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="8">
         <v>1200</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="27">
@@ -1947,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1963,16 +2020,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1987,295 +2044,401 @@
         <v>281.71333333333331</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3">
         <f>7711.77/30</f>
         <v>257.05900000000003</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>235.05</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>407.39</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <f>14616.47/30</f>
         <v>487.21566666666666</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>14.51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
       <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6">
+        <v>100</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>68</v>
+      <c r="B10" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="C10" s="6">
-        <v>632.4</v>
+        <v>676.52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>69</v>
+      <c r="A11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="25">
-        <v>3162</v>
+        <v>3382.6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6">
         <v>5.99</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" s="6">
         <v>14.2</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6">
         <v>32.99</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6">
         <v>43.99</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3.69</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="6">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="6">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="6">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="6">
+        <v>55</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="6">
+        <v>199.23500000000001</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="21">
+        <v>199.23500000000001</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="21">
+        <v>262.20800000000003</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="21">
+        <v>262.20749999999998</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="21">
+        <v>1162.4100000000001</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="6">
-        <v>680.79</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="21">
-        <v>2704.41</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="21">
-        <v>2470.48</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="21">
-        <v>988.19</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="21">
-        <v>4380.74</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="21">
-        <v>8620</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
+      <c r="C30" s="21">
+        <v>444.02699999999999</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2306,13 +2469,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30">
       <c r="A1" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2328,7 +2491,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -2339,7 +2502,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -2350,7 +2513,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0.2</v>
@@ -2361,7 +2524,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -2372,7 +2535,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0.2</v>
@@ -2383,7 +2546,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0.2</v>
@@ -2394,7 +2557,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>0.2</v>
@@ -2405,7 +2568,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>0.2</v>
@@ -2416,7 +2579,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>0.2</v>
@@ -2427,7 +2590,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>0.2</v>
@@ -2451,26 +2614,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2481,117 +2644,117 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>91.72</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>136.15</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>91.72</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>136.15</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>136.15</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>136.15</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2623,19 +2786,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2648,187 +2811,187 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/treatment-costs.xlsx
+++ b/data-raw/treatment-costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-26580" yWindow="-21600" windowWidth="36780" windowHeight="20160" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-26580" yWindow="-21600" windowWidth="36780" windowHeight="20160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dosage" sheetId="1" r:id="rId1"/>
@@ -289,9 +289,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>Data on file</t>
-  </si>
-  <si>
     <t>ProspectoRx; WAC price 12/15/2017</t>
   </si>
   <si>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t>CPT 96413, 96415, 96417</t>
+  </si>
+  <si>
+    <t>Public announcement</t>
   </si>
 </sst>
 </file>
@@ -2006,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2044,7 +2044,7 @@
         <v>281.71333333333331</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2073,7 +2073,7 @@
         <v>235.05</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2087,7 +2087,7 @@
         <v>407.39</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2116,7 +2116,7 @@
         <v>14.51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
@@ -2130,7 +2130,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
@@ -2144,7 +2144,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2158,7 +2158,7 @@
         <v>676.52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2172,7 +2172,7 @@
         <v>3382.6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="6">
         <v>3.7</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>32</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="6">
         <v>3.69</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>32</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="6">
         <v>4.0999999999999996</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>33</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="6">
         <v>34.380000000000003</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>33</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="6">
         <v>34.380000000000003</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>33</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="6">
         <v>34.380000000000003</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>34</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="6">
         <v>55</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>34</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="6">
         <v>24.5</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>34</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="6">
         <v>10.5</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2368,7 +2368,7 @@
         <v>199.23500000000001</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2382,7 +2382,7 @@
         <v>199.23500000000001</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2396,7 +2396,7 @@
         <v>262.20800000000003</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2410,7 +2410,7 @@
         <v>262.20749999999998</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2424,7 +2424,7 @@
         <v>1162.4100000000001</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2438,7 +2438,7 @@
         <v>444.02699999999999</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2614,7 +2614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2699,7 +2699,7 @@
         <v>91.72</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2721,7 +2721,7 @@
         <v>91.72</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/data-raw/treatment-costs.xlsx
+++ b/data-raw/treatment-costs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenjansen/Egnyte/Shared/RW GENERAL (MANAGEMENT)/Jeroen only access/IVI/GitHub/IVI-NSCLC/data-raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724F2A24-8B3D-0E49-99C3-44809F1933E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26580" yWindow="-21600" windowWidth="36780" windowHeight="20160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dosage" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="administration_costs" sheetId="3" r:id="rId4"/>
     <sheet name="lookup" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="113">
   <si>
     <t>erlotinib</t>
   </si>
@@ -367,7 +373,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -1235,6 +1241,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1559,7 +1573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1569,7 +1583,7 @@
       <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
@@ -1583,7 +1597,7 @@
     <col min="11" max="11" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>72</v>
       </c>
@@ -1618,7 +1632,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
@@ -1684,7 +1698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
@@ -1717,7 +1731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
@@ -1750,7 +1764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -1783,7 +1797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="60">
+    <row r="7" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1820,7 +1834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
@@ -1852,7 +1866,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="30">
+    <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>22</v>
       </c>
@@ -1887,7 +1901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30">
+    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
@@ -1923,7 +1937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
@@ -1957,7 +1971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30">
+    <row r="12" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>28</v>
       </c>
@@ -2003,14 +2017,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
@@ -2018,7 +2032,7 @@
     <col min="4" max="4" width="136.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -2032,7 +2046,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2061,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2062,7 +2076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2076,7 +2090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2090,7 +2104,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2105,7 +2119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2119,7 +2133,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2133,7 +2147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -2147,7 +2161,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>20</v>
       </c>
@@ -2161,7 +2175,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>20</v>
       </c>
@@ -2175,7 +2189,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2189,7 +2203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -2203,7 +2217,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -2217,7 +2231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -2231,7 +2245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>32</v>
       </c>
@@ -2245,7 +2259,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>32</v>
       </c>
@@ -2259,7 +2273,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>32</v>
       </c>
@@ -2273,7 +2287,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>33</v>
       </c>
@@ -2287,7 +2301,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>33</v>
       </c>
@@ -2301,7 +2315,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>33</v>
       </c>
@@ -2315,7 +2329,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
         <v>34</v>
       </c>
@@ -2329,7 +2343,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>34</v>
       </c>
@@ -2343,7 +2357,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
         <v>34</v>
       </c>
@@ -2357,7 +2371,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
@@ -2371,7 +2385,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
@@ -2385,7 +2399,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2399,7 +2413,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2413,7 +2427,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2427,7 +2441,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2453,21 +2467,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>72</v>
       </c>
@@ -2478,7 +2492,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2503,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
@@ -2500,7 +2514,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +2525,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
@@ -2522,7 +2536,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2533,7 +2547,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2544,7 +2558,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
@@ -2555,7 +2569,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>22</v>
       </c>
@@ -2566,7 +2580,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
@@ -2577,7 +2591,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
@@ -2588,7 +2602,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>28</v>
       </c>
@@ -2611,21 +2625,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>72</v>
       </c>
@@ -2636,7 +2650,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -2647,7 +2661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
@@ -2658,7 +2672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
@@ -2669,7 +2683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
@@ -2680,7 +2694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2691,7 +2705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2702,7 +2716,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
@@ -2713,7 +2727,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>22</v>
       </c>
@@ -2724,7 +2738,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
@@ -2735,7 +2749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
@@ -2746,7 +2760,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>28</v>
       </c>
@@ -2769,14 +2783,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -2784,7 +2798,7 @@
     <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>73</v>
       </c>
@@ -2801,7 +2815,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2809,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2817,7 +2831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2825,7 +2839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2833,7 +2847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2841,7 +2855,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2852,7 +2866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2860,7 +2874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2868,7 +2882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2876,7 +2890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2884,7 +2898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -2898,7 +2912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -2912,7 +2926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -2926,7 +2940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -2939,11 +2953,8 @@
       <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -2960,7 +2971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2977,7 +2988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>84</v>
       </c>

--- a/data-raw/treatment-costs.xlsx
+++ b/data-raw/treatment-costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenjansen/Egnyte/Shared/RW GENERAL (MANAGEMENT)/Jeroen only access/IVI/GitHub/IVI-NSCLC/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724F2A24-8B3D-0E49-99C3-44809F1933E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8B8F2A-5A8B-FC45-A5B1-98A896749059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dosage" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="113">
   <si>
     <t>erlotinib</t>
   </si>
@@ -1576,11 +1576,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1930,8 +1930,8 @@
         <f>1/14</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>3</v>
+      <c r="J10" s="16">
+        <v>730</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>4</v>
@@ -1964,8 +1964,8 @@
         <f>1/21</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>3</v>
+      <c r="J11" s="16">
+        <v>730</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>4</v>
@@ -1998,8 +1998,8 @@
         <f>1/21</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>3</v>
+      <c r="J12" s="16">
+        <v>730</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>4</v>
@@ -2786,7 +2786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
